--- a/4.Analysis/Data/raw/day2/phase_005/select_day2_phase_005.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_005/select_day2_phase_005.xlsx
@@ -1,107 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="24750" windowHeight="10430"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
-  <si>
-    <t xml:space="preserve">USERID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subject.Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time_day2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source.Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_join_similar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_SRET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_AlT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever_ques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Env_Q2_item4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">join_interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">going_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">full_screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exit_fullScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what_problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when_disturb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feedbackm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eligible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moneny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paid_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="165">
+  <si>
+    <t>USERID</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Subject.Name</t>
+  </si>
+  <si>
+    <t>Time_day2</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source.Details</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>ever_join_similar</t>
+  </si>
+  <si>
+    <t>ever_SRET</t>
+  </si>
+  <si>
+    <t>ever_AlT</t>
+  </si>
+  <si>
+    <t>ever_ques</t>
+  </si>
+  <si>
+    <t>Env_Q2_item4</t>
+  </si>
+  <si>
+    <t>join_interval</t>
+  </si>
+  <si>
+    <t>going_normal</t>
+  </si>
+  <si>
+    <t>full_screen</t>
+  </si>
+  <si>
+    <t>exit_fullScreen</t>
+  </si>
+  <si>
+    <t>what_problem</t>
+  </si>
+  <si>
+    <t>distrub</t>
+  </si>
+  <si>
+    <t>when_disturb</t>
+  </si>
+  <si>
+    <t>feedbackm</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>Eligible</t>
+  </si>
+  <si>
+    <t>Moneny</t>
+  </si>
+  <si>
+    <t>Paid_date</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	574675236746690560</t>
   </si>
   <si>
-    <t xml:space="preserve">14</t>
+    <t>14</t>
   </si>
   <si>
     <t xml:space="preserve">	pluto猪猪</t>
@@ -110,88 +112,64 @@
     <t xml:space="preserve">	2023-11-26 09:40:53</t>
   </si>
   <si>
-    <t xml:space="preserve">56分21秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">直接访问</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.204.22.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">问题反馈</t>
-  </si>
-  <si>
-    <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G.从无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.一切正常</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A.我没有受到任何干扰</t>
+    <t>56分21秒</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>直接访问</t>
+  </si>
+  <si>
+    <t>182.204.22.89</t>
+  </si>
+  <si>
+    <t>问题反馈</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>-888</t>
+  </si>
+  <si>
+    <t>从无</t>
+  </si>
+  <si>
+    <t>G.从无</t>
+  </si>
+  <si>
+    <t>A.一切正常</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>-999</t>
+  </si>
+  <si>
+    <t>A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_005_subj_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	595218143807275008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	薄荷冰</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-26 18:36:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57分58秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60.167.182.235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检测记忆力	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_005_subj_14</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11.26</t>
+  </si>
+  <si>
+    <t>phase_005_subj_1</t>
   </si>
   <si>
     <t xml:space="preserve">	631124847648309248</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">	xiaoxion</t>
@@ -200,49 +178,22 @@
     <t xml:space="preserve">	2023-11-25 17:36:55</t>
   </si>
   <si>
-    <t xml:space="preserve">58分31秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.47.58.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.一个月内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_005_subj_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	634030444760793088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	笙笙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-26 21:24:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时7分15秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.134.127.131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">实验做得有些枯燥	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人性	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_005_subj_20</t>
+    <t>58分31秒</t>
+  </si>
+  <si>
+    <t>112.47.58.63</t>
+  </si>
+  <si>
+    <t>C.一个月内</t>
+  </si>
+  <si>
+    <t>phase_005_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	634800368890413056</t>
   </si>
   <si>
-    <t xml:space="preserve">13</t>
+    <t>13</t>
   </si>
   <si>
     <t xml:space="preserve">	加多宝</t>
@@ -251,10 +202,10 @@
     <t xml:space="preserve">	2023-11-25 21:31:36</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时14分5秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.226.148.217</t>
+    <t>1小时14分5秒</t>
+  </si>
+  <si>
+    <t>120.226.148.217</t>
   </si>
   <si>
     <t xml:space="preserve">感觉做多了会疲惫	</t>
@@ -263,37 +214,13 @@
     <t xml:space="preserve">朋友，跟自己的行为，性格	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	644523506599460864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	夜雨蔚蓝</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-25 14:10:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时29分22秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.123.70.147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">我觉得实验是为了判断反应能力，在错误的时候调整自己思绪的，纠正错误的能力	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_005_subj_6</t>
+    <t>phase_005_subj_7</t>
   </si>
   <si>
     <t xml:space="preserve">	673561434503774208</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve">	唠唠兔</t>
@@ -302,10 +229,10 @@
     <t xml:space="preserve">	2023-11-25 20:59:58</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时10分33秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.89.188.103</t>
+    <t>1小时10分33秒</t>
+  </si>
+  <si>
+    <t>113.89.188.103</t>
   </si>
   <si>
     <t xml:space="preserve">很棒的试验，满意 支持。	</t>
@@ -314,13 +241,13 @@
     <t xml:space="preserve">专注，自信以及内心想法	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_19</t>
+    <t>phase_005_subj_19</t>
   </si>
   <si>
     <t xml:space="preserve">	682886971621638144</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
+    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve">	恰恰财神到</t>
@@ -329,22 +256,22 @@
     <t xml:space="preserve">	2023-11-25 18:03:14</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时19分14秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.173.200.162</t>
+    <t>1小时19分14秒</t>
+  </si>
+  <si>
+    <t>111.173.200.162</t>
   </si>
   <si>
     <t xml:space="preserve">考察专注力及反应能力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_10</t>
+    <t>phase_005_subj_10</t>
   </si>
   <si>
     <t xml:space="preserve">	687568214028189696</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve">	应咏</t>
@@ -353,13 +280,13 @@
     <t xml:space="preserve">	2023-11-25 15:39:42</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时12分49秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219.151.28.153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">图形匹配（图形—人称词标签）</t>
+    <t>1小时12分49秒</t>
+  </si>
+  <si>
+    <t>219.151.28.153</t>
+  </si>
+  <si>
+    <t>图形匹配（图形—人称词标签）</t>
   </si>
   <si>
     <t xml:space="preserve">没有	</t>
@@ -368,13 +295,13 @@
     <t xml:space="preserve">记忆力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_4</t>
+    <t>phase_005_subj_4</t>
   </si>
   <si>
     <t xml:space="preserve">	697447755366268928</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">	小胡</t>
@@ -383,16 +310,16 @@
     <t xml:space="preserve">	2023-11-25 13:42:06</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时43分54秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223.153.20.118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词汇评估（评估—再认）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">类似的问卷调查</t>
+    <t>1小时43分54秒</t>
+  </si>
+  <si>
+    <t>223.153.20.118</t>
+  </si>
+  <si>
+    <t>词汇评估（评估—再认）</t>
+  </si>
+  <si>
+    <t>类似的问卷调查</t>
   </si>
   <si>
     <t xml:space="preserve">这也太难啦。	</t>
@@ -401,13 +328,13 @@
     <t xml:space="preserve">研究人的专注	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_8</t>
+    <t>phase_005_subj_8</t>
   </si>
   <si>
     <t xml:space="preserve">	708989653960622080</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">	卡布奇诺01</t>
@@ -416,16 +343,16 @@
     <t xml:space="preserve">	2023-11-25 14:06:12</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时10分54秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.116.121.20</t>
+    <t>1小时10分54秒</t>
+  </si>
+  <si>
+    <t>103.116.121.20</t>
   </si>
   <si>
     <t xml:space="preserve">让人有良好的品质	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_3</t>
+    <t>phase_005_subj_3</t>
   </si>
   <si>
     <t xml:space="preserve">	723547879209172992</t>
@@ -437,22 +364,22 @@
     <t xml:space="preserve">	2023-11-25 18:24:03</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时3分37秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.40.53.75</t>
+    <t>1小时3分37秒</t>
+  </si>
+  <si>
+    <t>112.40.53.75</t>
   </si>
   <si>
     <t xml:space="preserve">不知道，只知道很难，一直全神贯注去做，眼睛很干	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_9</t>
+    <t>phase_005_subj_9</t>
   </si>
   <si>
     <t xml:space="preserve">	732379307938418690</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t>4</t>
   </si>
   <si>
     <t xml:space="preserve">	纯如</t>
@@ -461,25 +388,25 @@
     <t xml:space="preserve">	2023-11-25 13:50:45</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时9分25秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221.204.171.229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.半个月内</t>
+    <t>1小时9分25秒</t>
+  </si>
+  <si>
+    <t>221.204.171.229</t>
+  </si>
+  <si>
+    <t>B.半个月内</t>
   </si>
   <si>
     <t xml:space="preserve">强化短时记忆	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_12</t>
+    <t>phase_005_subj_12</t>
   </si>
   <si>
     <t xml:space="preserve">	732578051896119298</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">	用户11111号</t>
@@ -488,22 +415,22 @@
     <t xml:space="preserve">	2023-11-25 13:11:13</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时4分30秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.49.109.88</t>
+    <t>1小时4分30秒</t>
+  </si>
+  <si>
+    <t>42.49.109.88</t>
   </si>
   <si>
     <t xml:space="preserve">探究人对一些品质的感知能力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_16</t>
+    <t>phase_005_subj_16</t>
   </si>
   <si>
     <t xml:space="preserve">	740167970172702721</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve">	鸣鹤</t>
@@ -512,22 +439,22 @@
     <t xml:space="preserve">	2023-11-25 17:58:09</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时13分3秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.168.62.209</t>
+    <t>1小时13分3秒</t>
+  </si>
+  <si>
+    <t>61.168.62.209</t>
   </si>
   <si>
     <t xml:space="preserve">探究自我能力	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_2</t>
+    <t>phase_005_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	765496939306553346</t>
   </si>
   <si>
-    <t xml:space="preserve">17</t>
+    <t>17</t>
   </si>
   <si>
     <t xml:space="preserve">	用户37633</t>
@@ -536,22 +463,22 @@
     <t xml:space="preserve">	2023-11-27 01:44:04</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时32分3秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182.118.239.155</t>
+    <t>1小时32分3秒</t>
+  </si>
+  <si>
+    <t>182.118.239.155</t>
   </si>
   <si>
     <t xml:space="preserve">通过练习建立图形和词汇的匹配度随着时间的变化、记忆程度看正确度	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_5</t>
+    <t>phase_005_subj_5</t>
   </si>
   <si>
     <t xml:space="preserve">	768804353862799361</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
+    <t>11</t>
   </si>
   <si>
     <t xml:space="preserve">	欣欣啊</t>
@@ -560,10 +487,10 @@
     <t xml:space="preserve">	2023-11-25 19:56:34</t>
   </si>
   <si>
-    <t xml:space="preserve">1小时39分27秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.15.151.9</t>
+    <t>1小时39分27秒</t>
+  </si>
+  <si>
+    <t>124.15.151.9</t>
   </si>
   <si>
     <t xml:space="preserve">由于day1和day2实验时间间隔很短，脑子还是有在做day1的记忆，所以做day2的时候，我有时候会忘了到底什么才是判别方法，会产生一定的干扰，而且，在短时间判断，有些判断可能是下意识的操作，反而是不经过大脑的，所以要必须高度集中；当图形判断之后，会出现正确还是错误，这其实会对我们的内心造成一定的干扰，当看到自己选错了之后，内心会出现慌乱，导致会接连出现错误；在最后的朋友和自己选词的阶段，我是完全没有料想到后面会出一个判断词的熟悉程度，而且判断该词在谁身上，这很考验瞬间记忆，所以如果我觉得主试的实验目的是这个，那很成功，我觉得这个实验让我收获了很多，也反思了很多，预祝主试一切顺利啦！	</t>
@@ -572,7 +499,7 @@
     <t xml:space="preserve">我觉得是考验下意识反映和瞬间记忆	</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_18</t>
+    <t>phase_005_subj_18</t>
   </si>
   <si>
     <t xml:space="preserve">	767710612724912129</t>
@@ -581,32 +508,374 @@
     <t xml:space="preserve">	用户38124</t>
   </si>
   <si>
-    <t xml:space="preserve">phase_005_subj_17</t>
+    <t>phase_005_subj_17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -614,17 +883,526 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -901,19 +1679,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K4" sqref="$A4:$XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="27" max="27" width="20.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1081,11 +1864,11 @@
       <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1129,7 +1912,7 @@
         <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
         <v>41</v>
@@ -1153,7 +1936,7 @@
         <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s">
         <v>46</v>
@@ -1167,11 +1950,11 @@
       <c r="AA3" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" t="n">
-        <v>577</v>
+      <c r="AB3">
+        <v>566</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -1215,7 +1998,7 @@
         <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="P4" t="s">
         <v>41</v>
@@ -1236,10 +2019,10 @@
         <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
         <v>46</v>
@@ -1251,27 +2034,27 @@
         <v>48</v>
       </c>
       <c r="AA4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>566</v>
+        <v>66</v>
+      </c>
+      <c r="AB4">
+        <v>266</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -1280,7 +2063,7 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
@@ -1322,10 +2105,10 @@
         <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s">
         <v>46</v>
@@ -1337,27 +2120,27 @@
         <v>48</v>
       </c>
       <c r="AA5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>698</v>
+        <v>75</v>
+      </c>
+      <c r="AB5">
+        <v>695</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -1366,7 +2149,7 @@
         <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
@@ -1408,7 +2191,7 @@
         <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="W6" t="s">
         <v>82</v>
@@ -1425,11 +2208,11 @@
       <c r="AA6" t="s">
         <v>83</v>
       </c>
-      <c r="AB6" t="n">
-        <v>266</v>
+      <c r="AB6">
+        <v>448</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -1458,22 +2241,22 @@
         <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
         <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s">
         <v>38</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P7" t="s">
         <v>41</v>
@@ -1494,10 +2277,10 @@
         <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
         <v>46</v>
@@ -1509,27 +2292,27 @@
         <v>48</v>
       </c>
       <c r="AA7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>208</v>
+        <v>93</v>
+      </c>
+      <c r="AB7">
+        <v>150</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -1538,28 +2321,28 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O8" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P8" t="s">
         <v>41</v>
@@ -1580,10 +2363,10 @@
         <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="X8" t="s">
         <v>46</v>
@@ -1595,27 +2378,27 @@
         <v>48</v>
       </c>
       <c r="AA8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>695</v>
+        <v>104</v>
+      </c>
+      <c r="AB8">
+        <v>271</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -1624,7 +2407,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
@@ -1666,10 +2449,10 @@
         <v>43</v>
       </c>
       <c r="V9" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
         <v>46</v>
@@ -1681,27 +2464,27 @@
         <v>48</v>
       </c>
       <c r="AA9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>448</v>
+        <v>112</v>
+      </c>
+      <c r="AB9">
+        <v>92</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
@@ -1710,28 +2493,28 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="P10" t="s">
         <v>41</v>
@@ -1752,10 +2535,10 @@
         <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
         <v>46</v>
@@ -1767,27 +2550,27 @@
         <v>48</v>
       </c>
       <c r="AA10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>150</v>
+        <v>119</v>
+      </c>
+      <c r="AB10">
+        <v>411</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -1796,7 +2579,7 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
@@ -1805,19 +2588,19 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
         <v>126</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="s">
-        <v>64</v>
       </c>
       <c r="P11" t="s">
         <v>41</v>
@@ -1838,10 +2621,10 @@
         <v>43</v>
       </c>
       <c r="V11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" t="s">
         <v>127</v>
-      </c>
-      <c r="W11" t="s">
-        <v>128</v>
       </c>
       <c r="X11" t="s">
         <v>46</v>
@@ -1853,27 +2636,27 @@
         <v>48</v>
       </c>
       <c r="AA11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB11">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
         <v>129</v>
       </c>
-      <c r="AB11" t="n">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>130</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>131</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>132</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>133</v>
-      </c>
-      <c r="E12" t="s">
-        <v>134</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -1882,7 +2665,7 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
@@ -1924,10 +2707,10 @@
         <v>43</v>
       </c>
       <c r="V12" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="W12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
         <v>46</v>
@@ -1939,18 +2722,18 @@
         <v>48</v>
       </c>
       <c r="AA12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB12">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
         <v>137</v>
       </c>
-      <c r="AB12" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>138</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>139</v>
@@ -1974,22 +2757,22 @@
         <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
         <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P13" t="s">
         <v>41</v>
@@ -2027,11 +2810,11 @@
       <c r="AA13" t="s">
         <v>144</v>
       </c>
-      <c r="AB13" t="n">
-        <v>411</v>
+      <c r="AB13">
+        <v>48</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>145</v>
       </c>
@@ -2060,22 +2843,22 @@
         <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
         <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
         <v>41</v>
@@ -2096,10 +2879,10 @@
         <v>43</v>
       </c>
       <c r="V14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
         <v>46</v>
@@ -2111,27 +2894,27 @@
         <v>48</v>
       </c>
       <c r="AA14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
         <v>153</v>
       </c>
-      <c r="AB14" t="n">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>154</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>155</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>156</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>157</v>
-      </c>
-      <c r="E15" t="s">
-        <v>158</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
@@ -2140,7 +2923,7 @@
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
@@ -2182,7 +2965,7 @@
         <v>43</v>
       </c>
       <c r="V15" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="W15" t="s">
         <v>160</v>
@@ -2199,79 +2982,16 @@
       <c r="AA15" t="s">
         <v>161</v>
       </c>
-      <c r="AB15" t="n">
-        <v>649</v>
+      <c r="AB15">
+        <v>668</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>163</v>
-      </c>
-      <c r="C16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" t="s">
-        <v>115</v>
-      </c>
-      <c r="M16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" t="s">
-        <v>64</v>
-      </c>
-      <c r="P16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" t="s">
-        <v>44</v>
-      </c>
-      <c r="U16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" t="s">
-        <v>45</v>
-      </c>
-      <c r="W16" t="s">
-        <v>168</v>
       </c>
       <c r="X16" t="s">
         <v>46</v>
@@ -2283,226 +3003,15 @@
         <v>48</v>
       </c>
       <c r="AA16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
-      <c r="D17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="O17" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>42</v>
-      </c>
-      <c r="R17" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" t="s">
-        <v>43</v>
-      </c>
-      <c r="T17" t="s">
-        <v>44</v>
-      </c>
-      <c r="U17" t="s">
-        <v>43</v>
-      </c>
-      <c r="V17" t="s">
-        <v>43</v>
-      </c>
-      <c r="W17" t="s">
-        <v>176</v>
-      </c>
-      <c r="X17" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>178</v>
-      </c>
-      <c r="B18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>183</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>42</v>
-      </c>
-      <c r="R18" t="s">
-        <v>43</v>
-      </c>
-      <c r="S18" t="s">
-        <v>43</v>
-      </c>
-      <c r="T18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
-        <v>43</v>
-      </c>
-      <c r="V18" t="s">
-        <v>184</v>
-      </c>
-      <c r="W18" t="s">
-        <v>185</v>
-      </c>
-      <c r="X18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB19" t="n">
+        <v>164</v>
+      </c>
+      <c r="AB16">
         <v>666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/4.Analysis/Data/raw/day2/phase_005/select_day2_phase_005.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_005/select_day2_phase_005.xlsx
@@ -1,109 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="165">
-  <si>
-    <t>USERID</t>
-  </si>
-  <si>
-    <t>Num</t>
-  </si>
-  <si>
-    <t>Subject.Name</t>
-  </si>
-  <si>
-    <t>Time_day2</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Source.Details</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>ever_join_similar</t>
-  </si>
-  <si>
-    <t>ever_SRET</t>
-  </si>
-  <si>
-    <t>ever_AlT</t>
-  </si>
-  <si>
-    <t>ever_ques</t>
-  </si>
-  <si>
-    <t>Env_Q2_item4</t>
-  </si>
-  <si>
-    <t>join_interval</t>
-  </si>
-  <si>
-    <t>going_normal</t>
-  </si>
-  <si>
-    <t>full_screen</t>
-  </si>
-  <si>
-    <t>exit_fullScreen</t>
-  </si>
-  <si>
-    <t>what_problem</t>
-  </si>
-  <si>
-    <t>distrub</t>
-  </si>
-  <si>
-    <t>when_disturb</t>
-  </si>
-  <si>
-    <t>feedbackm</t>
-  </si>
-  <si>
-    <t>aim</t>
-  </si>
-  <si>
-    <t>Eligible</t>
-  </si>
-  <si>
-    <t>Moneny</t>
-  </si>
-  <si>
-    <t>Paid_date</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ParticipantID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+  <si>
+    <t xml:space="preserve">USERID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject.Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_day2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source.Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_join_similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_SRET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_AlT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ever_ques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Env_Q2_item4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">join_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going_normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit_fullScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what_problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distrub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when_disturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feedbackm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eligible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moneny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ParticipantID</t>
   </si>
   <si>
     <t xml:space="preserve">	574675236746690560</t>
   </si>
   <si>
-    <t>14</t>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">	pluto猪猪</t>
@@ -112,64 +110,64 @@
     <t xml:space="preserve">	2023-11-26 09:40:53</t>
   </si>
   <si>
-    <t>56分21秒</t>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <t>直接访问</t>
-  </si>
-  <si>
-    <t>182.204.22.89</t>
-  </si>
-  <si>
-    <t>问题反馈</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>-888</t>
-  </si>
-  <si>
-    <t>从无</t>
-  </si>
-  <si>
-    <t>G.从无</t>
-  </si>
-  <si>
-    <t>A.一切正常</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>-999</t>
-  </si>
-  <si>
-    <t>A.我没有受到任何干扰</t>
+    <t xml:space="preserve">56分21秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">直接访问</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.204.22.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">问题反馈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.从无</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.一切正常</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.我没有受到任何干扰</t>
   </si>
   <si>
     <t xml:space="preserve">无	</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11.26</t>
-  </si>
-  <si>
-    <t>phase_005_subj_1</t>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_005_subj_1</t>
   </si>
   <si>
     <t xml:space="preserve">	631124847648309248</t>
   </si>
   <si>
-    <t>7</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">	xiaoxion</t>
@@ -178,22 +176,22 @@
     <t xml:space="preserve">	2023-11-25 17:36:55</t>
   </si>
   <si>
-    <t>58分31秒</t>
-  </si>
-  <si>
-    <t>112.47.58.63</t>
-  </si>
-  <si>
-    <t>C.一个月内</t>
-  </si>
-  <si>
-    <t>phase_005_subj_13</t>
+    <t xml:space="preserve">58分31秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.47.58.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.一个月内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phase_005_subj_13</t>
   </si>
   <si>
     <t xml:space="preserve">	634800368890413056</t>
   </si>
   <si>
-    <t>13</t>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">	加多宝</t>
@@ -202,10 +200,10 @@
     <t xml:space="preserve">	2023-11-25 21:31:36</t>
   </si>
   <si>
-    <t>1小时14分5秒</t>
-  </si>
-  <si>
-    <t>120.226.148.217</t>
+    <t xml:space="preserve">1小时14分5秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.226.148.217</t>
   </si>
   <si>
     <t xml:space="preserve">感觉做多了会疲惫	</t>
@@ -214,13 +212,13 @@
     <t xml:space="preserve">朋友，跟自己的行为，性格	</t>
   </si>
   <si>
-    <t>phase_005_subj_7</t>
+    <t xml:space="preserve">phase_005_subj_7</t>
   </si>
   <si>
     <t xml:space="preserve">	673561434503774208</t>
   </si>
   <si>
-    <t>12</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">	唠唠兔</t>
@@ -229,10 +227,10 @@
     <t xml:space="preserve">	2023-11-25 20:59:58</t>
   </si>
   <si>
-    <t>1小时10分33秒</t>
-  </si>
-  <si>
-    <t>113.89.188.103</t>
+    <t xml:space="preserve">1小时10分33秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.89.188.103</t>
   </si>
   <si>
     <t xml:space="preserve">很棒的试验，满意 支持。	</t>
@@ -241,13 +239,13 @@
     <t xml:space="preserve">专注，自信以及内心想法	</t>
   </si>
   <si>
-    <t>phase_005_subj_19</t>
+    <t xml:space="preserve">phase_005_subj_19</t>
   </si>
   <si>
     <t xml:space="preserve">	682886971621638144</t>
   </si>
   <si>
-    <t>8</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">	恰恰财神到</t>
@@ -256,22 +254,22 @@
     <t xml:space="preserve">	2023-11-25 18:03:14</t>
   </si>
   <si>
-    <t>1小时19分14秒</t>
-  </si>
-  <si>
-    <t>111.173.200.162</t>
+    <t xml:space="preserve">1小时19分14秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.173.200.162</t>
   </si>
   <si>
     <t xml:space="preserve">考察专注力及反应能力	</t>
   </si>
   <si>
-    <t>phase_005_subj_10</t>
+    <t xml:space="preserve">phase_005_subj_10</t>
   </si>
   <si>
     <t xml:space="preserve">	687568214028189696</t>
   </si>
   <si>
-    <t>6</t>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">	应咏</t>
@@ -280,13 +278,13 @@
     <t xml:space="preserve">	2023-11-25 15:39:42</t>
   </si>
   <si>
-    <t>1小时12分49秒</t>
-  </si>
-  <si>
-    <t>219.151.28.153</t>
-  </si>
-  <si>
-    <t>图形匹配（图形—人称词标签）</t>
+    <t xml:space="preserve">1小时12分49秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219.151.28.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图形匹配（图形—人称词标签）</t>
   </si>
   <si>
     <t xml:space="preserve">没有	</t>
@@ -295,46 +293,13 @@
     <t xml:space="preserve">记忆力	</t>
   </si>
   <si>
-    <t>phase_005_subj_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	697447755366268928</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	小胡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-11-25 13:42:06</t>
-  </si>
-  <si>
-    <t>1小时43分54秒</t>
-  </si>
-  <si>
-    <t>223.153.20.118</t>
-  </si>
-  <si>
-    <t>词汇评估（评估—再认）</t>
-  </si>
-  <si>
-    <t>类似的问卷调查</t>
-  </si>
-  <si>
-    <t xml:space="preserve">这也太难啦。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">研究人的专注	</t>
-  </si>
-  <si>
-    <t>phase_005_subj_8</t>
+    <t xml:space="preserve">phase_005_subj_4</t>
   </si>
   <si>
     <t xml:space="preserve">	708989653960622080</t>
   </si>
   <si>
-    <t>5</t>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">	卡布奇诺01</t>
@@ -343,16 +308,16 @@
     <t xml:space="preserve">	2023-11-25 14:06:12</t>
   </si>
   <si>
-    <t>1小时10分54秒</t>
-  </si>
-  <si>
-    <t>103.116.121.20</t>
+    <t xml:space="preserve">1小时10分54秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.116.121.20</t>
   </si>
   <si>
     <t xml:space="preserve">让人有良好的品质	</t>
   </si>
   <si>
-    <t>phase_005_subj_3</t>
+    <t xml:space="preserve">phase_005_subj_3</t>
   </si>
   <si>
     <t xml:space="preserve">	723547879209172992</t>
@@ -364,22 +329,22 @@
     <t xml:space="preserve">	2023-11-25 18:24:03</t>
   </si>
   <si>
-    <t>1小时3分37秒</t>
-  </si>
-  <si>
-    <t>112.40.53.75</t>
+    <t xml:space="preserve">1小时3分37秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.40.53.75</t>
   </si>
   <si>
     <t xml:space="preserve">不知道，只知道很难，一直全神贯注去做，眼睛很干	</t>
   </si>
   <si>
-    <t>phase_005_subj_9</t>
+    <t xml:space="preserve">phase_005_subj_9</t>
   </si>
   <si>
     <t xml:space="preserve">	732379307938418690</t>
   </si>
   <si>
-    <t>4</t>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">	纯如</t>
@@ -388,25 +353,25 @@
     <t xml:space="preserve">	2023-11-25 13:50:45</t>
   </si>
   <si>
-    <t>1小时9分25秒</t>
-  </si>
-  <si>
-    <t>221.204.171.229</t>
-  </si>
-  <si>
-    <t>B.半个月内</t>
+    <t xml:space="preserve">1小时9分25秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221.204.171.229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.半个月内</t>
   </si>
   <si>
     <t xml:space="preserve">强化短时记忆	</t>
   </si>
   <si>
-    <t>phase_005_subj_12</t>
+    <t xml:space="preserve">phase_005_subj_12</t>
   </si>
   <si>
     <t xml:space="preserve">	732578051896119298</t>
   </si>
   <si>
-    <t>2</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">	用户11111号</t>
@@ -415,22 +380,22 @@
     <t xml:space="preserve">	2023-11-25 13:11:13</t>
   </si>
   <si>
-    <t>1小时4分30秒</t>
-  </si>
-  <si>
-    <t>42.49.109.88</t>
+    <t xml:space="preserve">1小时4分30秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.49.109.88</t>
   </si>
   <si>
     <t xml:space="preserve">探究人对一些品质的感知能力	</t>
   </si>
   <si>
-    <t>phase_005_subj_16</t>
+    <t xml:space="preserve">phase_005_subj_16</t>
   </si>
   <si>
     <t xml:space="preserve">	740167970172702721</t>
   </si>
   <si>
-    <t>9</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">	鸣鹤</t>
@@ -439,22 +404,22 @@
     <t xml:space="preserve">	2023-11-25 17:58:09</t>
   </si>
   <si>
-    <t>1小时13分3秒</t>
-  </si>
-  <si>
-    <t>61.168.62.209</t>
+    <t xml:space="preserve">1小时13分3秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.168.62.209</t>
   </si>
   <si>
     <t xml:space="preserve">探究自我能力	</t>
   </si>
   <si>
-    <t>phase_005_subj_2</t>
+    <t xml:space="preserve">phase_005_subj_2</t>
   </si>
   <si>
     <t xml:space="preserve">	765496939306553346</t>
   </si>
   <si>
-    <t>17</t>
+    <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">	用户37633</t>
@@ -463,22 +428,22 @@
     <t xml:space="preserve">	2023-11-27 01:44:04</t>
   </si>
   <si>
-    <t>1小时32分3秒</t>
-  </si>
-  <si>
-    <t>182.118.239.155</t>
+    <t xml:space="preserve">1小时32分3秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182.118.239.155</t>
   </si>
   <si>
     <t xml:space="preserve">通过练习建立图形和词汇的匹配度随着时间的变化、记忆程度看正确度	</t>
   </si>
   <si>
-    <t>phase_005_subj_5</t>
+    <t xml:space="preserve">phase_005_subj_5</t>
   </si>
   <si>
     <t xml:space="preserve">	768804353862799361</t>
   </si>
   <si>
-    <t>11</t>
+    <t xml:space="preserve">11</t>
   </si>
   <si>
     <t xml:space="preserve">	欣欣啊</t>
@@ -487,10 +452,10 @@
     <t xml:space="preserve">	2023-11-25 19:56:34</t>
   </si>
   <si>
-    <t>1小时39分27秒</t>
-  </si>
-  <si>
-    <t>124.15.151.9</t>
+    <t xml:space="preserve">1小时39分27秒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.15.151.9</t>
   </si>
   <si>
     <t xml:space="preserve">由于day1和day2实验时间间隔很短，脑子还是有在做day1的记忆，所以做day2的时候，我有时候会忘了到底什么才是判别方法，会产生一定的干扰，而且，在短时间判断，有些判断可能是下意识的操作，反而是不经过大脑的，所以要必须高度集中；当图形判断之后，会出现正确还是错误，这其实会对我们的内心造成一定的干扰，当看到自己选错了之后，内心会出现慌乱，导致会接连出现错误；在最后的朋友和自己选词的阶段，我是完全没有料想到后面会出一个判断词的熟悉程度，而且判断该词在谁身上，这很考验瞬间记忆，所以如果我觉得主试的实验目的是这个，那很成功，我觉得这个实验让我收获了很多，也反思了很多，预祝主试一切顺利啦！	</t>
@@ -499,383 +464,32 @@
     <t xml:space="preserve">我觉得是考验下意识反映和瞬间记忆	</t>
   </si>
   <si>
-    <t>phase_005_subj_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	767710612724912129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	用户38124</t>
-  </si>
-  <si>
-    <t>phase_005_subj_17</t>
+    <t xml:space="preserve">phase_005_subj_18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -883,526 +497,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -1679,24 +784,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AB16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K4" sqref="$A4:$XFD4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="27" max="27" width="20.8181818181818" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1782,7 +882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1864,11 +964,11 @@
       <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1950,11 +1050,11 @@
       <c r="AA3" t="s">
         <v>57</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>566</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2036,11 +1136,11 @@
       <c r="AA4" t="s">
         <v>66</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2122,11 +1222,11 @@
       <c r="AA5" t="s">
         <v>75</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>695</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -2208,11 +1308,11 @@
       <c r="AA6" t="s">
         <v>83</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -2294,11 +1394,11 @@
       <c r="AA7" t="s">
         <v>93</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -2327,22 +1427,22 @@
         <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O8" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="P8" t="s">
         <v>41</v>
@@ -2363,10 +1463,10 @@
         <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
         <v>46</v>
@@ -2378,27 +1478,27 @@
         <v>48</v>
       </c>
       <c r="AA8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>104</v>
       </c>
-      <c r="AB8">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" t="s">
+      <c r="E9" t="s">
         <v>105</v>
-      </c>
-      <c r="B9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" t="s">
-        <v>109</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -2407,7 +1507,7 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
@@ -2449,10 +1549,10 @@
         <v>43</v>
       </c>
       <c r="V9" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
         <v>46</v>
@@ -2464,27 +1564,27 @@
         <v>48</v>
       </c>
       <c r="AA9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
         <v>112</v>
       </c>
-      <c r="AB9">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" t="s">
+      <c r="E10" t="s">
         <v>113</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" t="s">
-        <v>116</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
@@ -2493,28 +1593,28 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
         <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
         <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="P10" t="s">
         <v>41</v>
@@ -2538,7 +1638,7 @@
         <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
         <v>46</v>
@@ -2550,27 +1650,27 @@
         <v>48</v>
       </c>
       <c r="AA10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
         <v>119</v>
       </c>
-      <c r="AB10">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>121</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>122</v>
-      </c>
-      <c r="D11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" t="s">
-        <v>124</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -2579,28 +1679,28 @@
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
         <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="M11" t="s">
         <v>38</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="P11" t="s">
         <v>41</v>
@@ -2621,10 +1721,10 @@
         <v>43</v>
       </c>
       <c r="V11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
         <v>46</v>
@@ -2636,27 +1736,27 @@
         <v>48</v>
       </c>
       <c r="AA11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
         <v>128</v>
       </c>
-      <c r="AB11">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" t="s">
+      <c r="D12" t="s">
         <v>129</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>130</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" t="s">
-        <v>133</v>
       </c>
       <c r="F12" t="s">
         <v>33</v>
@@ -2665,28 +1765,28 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
         <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
         <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O12" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="P12" t="s">
         <v>41</v>
@@ -2707,10 +1807,10 @@
         <v>43</v>
       </c>
       <c r="V12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="X12" t="s">
         <v>46</v>
@@ -2722,27 +1822,27 @@
         <v>48</v>
       </c>
       <c r="AA12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
         <v>136</v>
       </c>
-      <c r="AB12">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
         <v>137</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>138</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" t="s">
-        <v>141</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
@@ -2751,28 +1851,28 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I13" t="s">
         <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="M13" t="s">
         <v>38</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
         <v>41</v>
@@ -2793,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="V13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
         <v>46</v>
@@ -2808,27 +1908,27 @@
         <v>48</v>
       </c>
       <c r="AA13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
         <v>144</v>
       </c>
-      <c r="AB13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" t="s">
+      <c r="D14" t="s">
         <v>145</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>146</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" t="s">
-        <v>149</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -2837,7 +1937,7 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
@@ -2879,10 +1979,10 @@
         <v>43</v>
       </c>
       <c r="V14" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X14" t="s">
         <v>46</v>
@@ -2894,124 +1994,14 @@
         <v>48</v>
       </c>
       <c r="AA14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB14">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" t="s">
-        <v>44</v>
-      </c>
-      <c r="U15" t="s">
-        <v>43</v>
-      </c>
-      <c r="V15" t="s">
-        <v>159</v>
-      </c>
-      <c r="W15" t="s">
-        <v>160</v>
-      </c>
-      <c r="X15" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB15">
+        <v>150</v>
+      </c>
+      <c r="AB14" t="n">
         <v>668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" t="s">
-        <v>163</v>
-      </c>
-      <c r="X16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB16">
-        <v>666</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>